--- a/responses.xlsx
+++ b/responses.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chi_j\Documents\GitHub\cssurvey\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0605FD20-BD29-45C5-B8FB-80B5FBFA8EDE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="555" windowWidth="27495" windowHeight="11445"/>
+    <workbookView xWindow="3480" yWindow="2868" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Form responses 1" sheetId="1" r:id="rId1"/>
@@ -1550,7 +1556,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
@@ -1599,6 +1605,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -1646,7 +1655,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1679,9 +1688,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1714,6 +1740,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1889,23 +1932,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:O202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B207" sqref="B207"/>
+      <pane ySplit="1" topLeftCell="A179" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L183" sqref="L183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="21" width="21.5703125" customWidth="1"/>
+    <col min="1" max="21" width="21.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1952,7 +1995,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>43179.359009409724</v>
       </c>
@@ -1999,7 +2042,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>43179.359333449072</v>
       </c>
@@ -2046,7 +2089,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>43179.359403113427</v>
       </c>
@@ -2093,7 +2136,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>43179.35953519676</v>
       </c>
@@ -2140,7 +2183,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>43179.360248831013</v>
       </c>
@@ -2187,7 +2230,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>43179.36058168982</v>
       </c>
@@ -2234,7 +2277,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43179.361088634258</v>
       </c>
@@ -2281,7 +2324,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43179.361566747684</v>
       </c>
@@ -2328,7 +2371,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>43179.362359155093</v>
       </c>
@@ -2375,7 +2418,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>43179.362522210649</v>
       </c>
@@ -2422,7 +2465,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>43179.362563344912</v>
       </c>
@@ -2469,7 +2512,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>43179.36274251157</v>
       </c>
@@ -2516,7 +2559,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>43179.362837094908</v>
       </c>
@@ -2563,7 +2606,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>43179.362962280095</v>
       </c>
@@ -2610,7 +2653,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>43179.363175300925</v>
       </c>
@@ -2657,7 +2700,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>43179.363750578705</v>
       </c>
@@ -2704,7 +2747,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>43179.365264837965</v>
       </c>
@@ -2751,7 +2794,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>43179.366765891202</v>
       </c>
@@ -2798,7 +2841,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>43180.333442372685</v>
       </c>
@@ -2845,7 +2888,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>43180.333977870367</v>
       </c>
@@ -2892,7 +2935,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>43180.334614074076</v>
       </c>
@@ -2939,7 +2982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>43180.334690138887</v>
       </c>
@@ -2986,7 +3029,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>43180.334720219907</v>
       </c>
@@ -3033,7 +3076,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>43180.334813379624</v>
       </c>
@@ -3080,7 +3123,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>43180.33493045139</v>
       </c>
@@ -3127,7 +3170,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>43180.335025196764</v>
       </c>
@@ -3174,7 +3217,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>43180.335107233797</v>
       </c>
@@ -3221,7 +3264,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>43180.335165046301</v>
       </c>
@@ -3268,7 +3311,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>43180.335320706014</v>
       </c>
@@ -3315,7 +3358,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>43180.335340995371</v>
       </c>
@@ -3362,7 +3405,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>43180.335478437497</v>
       </c>
@@ -3409,7 +3452,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>43180.335562777778</v>
       </c>
@@ -3456,7 +3499,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>43180.335596469908</v>
       </c>
@@ -3503,7 +3546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>43180.335774108797</v>
       </c>
@@ -3550,7 +3593,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>43180.335792013888</v>
       </c>
@@ -3597,7 +3640,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>43180.336171631949</v>
       </c>
@@ -3644,7 +3687,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>43180.336424039357</v>
       </c>
@@ -3691,7 +3734,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>43180.336677245374</v>
       </c>
@@ -3738,7 +3781,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>43180.336706944443</v>
       </c>
@@ -3785,7 +3828,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>43180.337148287035</v>
       </c>
@@ -3832,7 +3875,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>43185.37035917824</v>
       </c>
@@ -3879,7 +3922,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>43185.370552881941</v>
       </c>
@@ -3926,7 +3969,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43185.370645543982</v>
       </c>
@@ -3973,7 +4016,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43185.37097935185</v>
       </c>
@@ -4020,7 +4063,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>43185.371031562499</v>
       </c>
@@ -4067,7 +4110,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>43185.371240335648</v>
       </c>
@@ -4114,7 +4157,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>43185.371341655089</v>
       </c>
@@ -4161,7 +4204,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>43185.37164430556</v>
       </c>
@@ -4208,7 +4251,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>43185.371707129627</v>
       </c>
@@ -4255,7 +4298,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="51" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>43185.371777175926</v>
       </c>
@@ -4302,7 +4345,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="52" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>43185.3720521875</v>
       </c>
@@ -4349,7 +4392,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>43185.372329166668</v>
       </c>
@@ -4396,7 +4439,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>43185.372987465278</v>
       </c>
@@ -4443,7 +4486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="55" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>43185.373097800926</v>
       </c>
@@ -4490,7 +4533,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="56" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>43185.373336527773</v>
       </c>
@@ -4537,7 +4580,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>43185.373771516199</v>
       </c>
@@ -4584,7 +4627,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>43185.374024004632</v>
       </c>
@@ -4631,7 +4674,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="59" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>43185.374546967592</v>
       </c>
@@ -4678,7 +4721,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>43185.374629849539</v>
       </c>
@@ -4725,7 +4768,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="61" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>43185.375052372685</v>
       </c>
@@ -4772,7 +4815,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="62" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>43185.375160532407</v>
       </c>
@@ -4819,7 +4862,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="63" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>43185.375741400465</v>
       </c>
@@ -4866,7 +4909,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>43185.375894803241</v>
       </c>
@@ -4913,7 +4956,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="65" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>43185.376090624995</v>
       </c>
@@ -4960,7 +5003,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>43185.38128400463</v>
       </c>
@@ -5007,7 +5050,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>43185.438362361107</v>
       </c>
@@ -5054,7 +5097,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>43185.439171828708</v>
       </c>
@@ -5101,7 +5144,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>43185.439290138893</v>
       </c>
@@ -5148,7 +5191,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>43185.439564340282</v>
       </c>
@@ -5195,7 +5238,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>43185.439799305561</v>
       </c>
@@ -5242,7 +5285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>43185.439898530094</v>
       </c>
@@ -5289,7 +5332,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>43185.439917523152</v>
       </c>
@@ -5336,7 +5379,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>43185.439932986112</v>
       </c>
@@ -5383,7 +5426,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>43185.440621458329</v>
       </c>
@@ -5430,7 +5473,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>43185.440851099542</v>
       </c>
@@ -5477,7 +5520,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="77" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>43185.442039074071</v>
       </c>
@@ -5524,7 +5567,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>43185.442065648152</v>
       </c>
@@ -5571,7 +5614,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>43185.442117048609</v>
       </c>
@@ -5618,7 +5661,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>43185.442181157407</v>
       </c>
@@ -5665,7 +5708,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="81" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>43185.442267210645</v>
       </c>
@@ -5712,7 +5755,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="82" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>43185.442390682874</v>
       </c>
@@ -5759,7 +5802,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="83" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>43185.44256221065</v>
       </c>
@@ -5806,7 +5849,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="84" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>43185.443452638894</v>
       </c>
@@ -5853,7 +5896,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="85" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>43185.444960474539</v>
       </c>
@@ -5900,7 +5943,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>43185.571572361107</v>
       </c>
@@ -5947,7 +5990,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>43185.572114849536</v>
       </c>
@@ -5994,7 +6037,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="88" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>43185.57273237269</v>
       </c>
@@ -6041,7 +6084,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>43185.572737245369</v>
       </c>
@@ -6088,7 +6131,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="90" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>43185.572827569442</v>
       </c>
@@ -6135,7 +6178,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>43185.57294543981</v>
       </c>
@@ -6182,7 +6225,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="92" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>43185.572965949075</v>
       </c>
@@ -6229,7 +6272,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>43185.572971990739</v>
       </c>
@@ -6276,7 +6319,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="94" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>43185.573079004629</v>
       </c>
@@ -6323,7 +6366,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="95" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>43185.573256932868</v>
       </c>
@@ -6370,7 +6413,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="96" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>43185.573387766199</v>
       </c>
@@ -6417,7 +6460,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="97" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>43185.573578553245</v>
       </c>
@@ -6464,7 +6507,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>43185.575619467592</v>
       </c>
@@ -6511,7 +6554,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>43185.576620868058</v>
       </c>
@@ -6558,7 +6601,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>43185.576629212963</v>
       </c>
@@ -6605,7 +6648,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="101" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>43185.825332071763</v>
       </c>
@@ -6652,7 +6695,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="102" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>43188.476872326384</v>
       </c>
@@ -6699,7 +6742,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="103" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>43188.477145092591</v>
       </c>
@@ -6746,7 +6789,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>43188.477896863427</v>
       </c>
@@ -6793,7 +6836,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>43188.478415532409</v>
       </c>
@@ -6840,7 +6883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="106" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>43188.478920972222</v>
       </c>
@@ -6887,7 +6930,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>43188.479363969906</v>
       </c>
@@ -6934,7 +6977,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="108" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>43188.479629745372</v>
       </c>
@@ -6981,7 +7024,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="109" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>43188.479636087963</v>
       </c>
@@ -7028,7 +7071,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="110" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>43188.480080682872</v>
       </c>
@@ -7075,7 +7118,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="111" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>43188.480190057875</v>
       </c>
@@ -7122,7 +7165,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>43188.480363726849</v>
       </c>
@@ -7169,7 +7212,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>43188.48076619213</v>
       </c>
@@ -7216,7 +7259,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="114" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>43188.481054930555</v>
       </c>
@@ -7263,7 +7306,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>43188.48149914352</v>
       </c>
@@ -7310,7 +7353,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="116" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>43188.482184606481</v>
       </c>
@@ -7357,7 +7400,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>43188.482752662036</v>
       </c>
@@ -7404,7 +7447,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="118" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>43291.374741192129</v>
       </c>
@@ -7451,7 +7494,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="119" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>43291.375028854163</v>
       </c>
@@ -7498,7 +7541,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="120" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>43291.37504194444</v>
       </c>
@@ -7545,7 +7588,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>43291.37510931713</v>
       </c>
@@ -7592,7 +7635,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>43291.375164270838</v>
       </c>
@@ -7639,7 +7682,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="123" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>43291.376012395835</v>
       </c>
@@ -7686,7 +7729,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="124" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>43291.376437280094</v>
       </c>
@@ -7733,7 +7776,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="125" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>43291.376765740744</v>
       </c>
@@ -7780,7 +7823,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>43291.377939166661</v>
       </c>
@@ -7827,7 +7870,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="127" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A127" s="1">
         <v>43291.378077557871</v>
       </c>
@@ -7874,7 +7917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="128" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A128" s="1">
         <v>43291.379189224535</v>
       </c>
@@ -7921,7 +7964,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="129" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A129" s="1">
         <v>43291.379406967593</v>
       </c>
@@ -7968,7 +8011,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="130" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A130" s="1">
         <v>43291.384224907408</v>
       </c>
@@ -8015,7 +8058,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="131" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A131" s="1">
         <v>43293.518567349536</v>
       </c>
@@ -8062,7 +8105,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="132" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A132" s="1">
         <v>43293.518907476857</v>
       </c>
@@ -8109,7 +8152,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="133" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A133" s="1">
         <v>43293.518933564817</v>
       </c>
@@ -8156,7 +8199,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A134" s="1">
         <v>43293.519143773148</v>
       </c>
@@ -8203,7 +8246,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A135" s="1">
         <v>43293.519263437498</v>
       </c>
@@ -8250,7 +8293,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="136" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A136" s="1">
         <v>43293.519928888883</v>
       </c>
@@ -8297,7 +8340,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="137" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A137" s="1">
         <v>43293.519930949071</v>
       </c>
@@ -8344,7 +8387,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A138" s="1">
         <v>43293.520785324072</v>
       </c>
@@ -8391,7 +8434,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="139" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A139" s="1">
         <v>43293.520894641202</v>
       </c>
@@ -8438,7 +8481,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="140" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A140" s="1">
         <v>43293.521852488426</v>
       </c>
@@ -8485,7 +8528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="141" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A141" s="1">
         <v>43293.521918668979</v>
       </c>
@@ -8532,7 +8575,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="142" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A142" s="1">
         <v>43293.522718402775</v>
       </c>
@@ -8579,7 +8622,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="143" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A143" s="1">
         <v>43293.523070567127</v>
       </c>
@@ -8626,7 +8669,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="144" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A144" s="1">
         <v>43293.523284282404</v>
       </c>
@@ -8673,7 +8716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="145" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A145" s="1">
         <v>43293.524002199076</v>
       </c>
@@ -8720,7 +8763,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="146" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A146" s="1">
         <v>43293.524256874996</v>
       </c>
@@ -8767,7 +8810,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="147" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A147" s="1">
         <v>43293.524346342594</v>
       </c>
@@ -8814,7 +8857,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="148" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A148" s="1">
         <v>43293.524359398143</v>
       </c>
@@ -8861,7 +8904,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="149" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A149" s="1">
         <v>43293.525530717598</v>
       </c>
@@ -8908,7 +8951,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="150" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A150" s="1">
         <v>43293.526008449073</v>
       </c>
@@ -8955,7 +8998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="151" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A151" s="1">
         <v>43293.527258784721</v>
       </c>
@@ -9002,7 +9045,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="152" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A152" s="1">
         <v>43293.530023472224</v>
       </c>
@@ -9049,7 +9092,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="153" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A153" s="1">
         <v>43304.419396087964</v>
       </c>
@@ -9096,7 +9139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="154" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A154" s="1">
         <v>43304.419569375001</v>
       </c>
@@ -9143,7 +9186,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="155" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A155" s="1">
         <v>43304.420078275463</v>
       </c>
@@ -9190,7 +9233,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A156" s="1">
         <v>43304.420449745376</v>
       </c>
@@ -9237,7 +9280,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="157" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A157" s="1">
         <v>43304.420502233799</v>
       </c>
@@ -9284,7 +9327,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="158" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A158" s="1">
         <v>43304.420502488429</v>
       </c>
@@ -9331,7 +9374,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="159" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A159" s="1">
         <v>43304.420854884258</v>
       </c>
@@ -9378,7 +9421,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="160" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A160" s="1">
         <v>43304.421062164351</v>
       </c>
@@ -9425,7 +9468,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="161" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A161" s="1">
         <v>43304.421114027777</v>
       </c>
@@ -9472,7 +9515,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="162" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A162" s="1">
         <v>43304.421154780095</v>
       </c>
@@ -9519,7 +9562,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="163" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A163" s="1">
         <v>43304.421316979162</v>
       </c>
@@ -9566,7 +9609,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A164" s="1">
         <v>43304.421327569449</v>
       </c>
@@ -9613,7 +9656,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A165" s="1">
         <v>43304.421417025464</v>
       </c>
@@ -9660,7 +9703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A166" s="1">
         <v>43304.421504791666</v>
       </c>
@@ -9707,7 +9750,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="167" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A167" s="1">
         <v>43304.421848587968</v>
       </c>
@@ -9754,7 +9797,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="168" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A168" s="1">
         <v>43304.422413194443</v>
       </c>
@@ -9801,7 +9844,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A169" s="1">
         <v>43304.485966782406</v>
       </c>
@@ -9848,7 +9891,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="170" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A170" s="1">
         <v>43304.48673553241</v>
       </c>
@@ -9895,7 +9938,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="171" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A171" s="1">
         <v>43304.487044212961</v>
       </c>
@@ -9942,7 +9985,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="172" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A172" s="1">
         <v>43304.487131956019</v>
       </c>
@@ -9989,7 +10032,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="173" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A173" s="1">
         <v>43304.487157222218</v>
       </c>
@@ -10036,7 +10079,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="174" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A174" s="1">
         <v>43304.487177129631</v>
       </c>
@@ -10083,7 +10126,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="175" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A175" s="1">
         <v>43304.487408194444</v>
       </c>
@@ -10130,7 +10173,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="176" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A176" s="1">
         <v>43304.487518032409</v>
       </c>
@@ -10177,7 +10220,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A177" s="1">
         <v>43304.48753668982</v>
       </c>
@@ -10224,7 +10267,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="178" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A178" s="1">
         <v>43304.487663715277</v>
       </c>
@@ -10271,7 +10314,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="179" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A179" s="1">
         <v>43304.487772442131</v>
       </c>
@@ -10318,7 +10361,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="180" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A180" s="1">
         <v>43304.487993414354</v>
       </c>
@@ -10365,7 +10408,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="181" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A181" s="1">
         <v>43304.488209351854</v>
       </c>
@@ -10412,7 +10455,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A182" s="1">
         <v>43304.488238958336</v>
       </c>
@@ -10459,7 +10502,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="183" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A183" s="1">
         <v>43304.488972453706</v>
       </c>
@@ -10506,7 +10549,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="184" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A184" s="1">
         <v>43304.489042766203</v>
       </c>
@@ -10553,7 +10596,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="185" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A185" s="1">
         <v>43304.48933895833</v>
       </c>
@@ -10600,7 +10643,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="186" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A186" s="1">
         <v>43304.489342326386</v>
       </c>
@@ -10647,7 +10690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="187" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A187" s="1">
         <v>43304.633514467598</v>
       </c>
@@ -10694,7 +10737,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="188" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A188" s="1">
         <v>43304.633728749999</v>
       </c>
@@ -10741,7 +10784,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="189" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A189" s="1">
         <v>43304.63373814815</v>
       </c>
@@ -10788,7 +10831,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="190" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A190" s="1">
         <v>43304.633816030095</v>
       </c>
@@ -10835,7 +10878,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="191" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A191" s="1">
         <v>43304.633997708333</v>
       </c>
@@ -10882,7 +10925,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="192" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A192" s="1">
         <v>43304.634077129631</v>
       </c>
@@ -10929,7 +10972,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A193" s="1">
         <v>43304.634117615744</v>
       </c>
@@ -10976,7 +11019,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A194" s="1">
         <v>43304.634119733797</v>
       </c>
@@ -11023,7 +11066,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A195" s="1">
         <v>43304.634381087963</v>
       </c>
@@ -11070,7 +11113,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A196" s="1">
         <v>43304.634554733799</v>
       </c>
@@ -11117,7 +11160,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A197" s="1">
         <v>43304.634569444446</v>
       </c>
@@ -11164,7 +11207,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A198" s="1">
         <v>43304.634661562501</v>
       </c>
@@ -11211,7 +11254,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A199" s="1">
         <v>43304.634910567125</v>
       </c>
@@ -11258,7 +11301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A200" s="1">
         <v>43304.635062604168</v>
       </c>
@@ -11305,7 +11348,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A201" s="1">
         <v>43304.635160023143</v>
       </c>
@@ -11352,7 +11395,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A202" s="1">
         <v>43304.636388125</v>
       </c>
